--- a/data/long_razon/P18_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_1-Urba-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-66,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>45,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-13,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-59,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>47,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-62,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>46,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-2,65%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-76,74; -51,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 122,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 28,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-68,34; -46,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>13,54; 95,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 30,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-69,82; -54,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 84,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-20,99; 18,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-51,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>103,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-18,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-3,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-51,58%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-10,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-67,66; -17,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>29,25; 259,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-63,29; -35,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 32,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-26,15; 25,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-62,18; -38,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 74,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-28,2; 10,97</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-64,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>61,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>56,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-66,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>120,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-65,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>56,05%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,47 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-84,16; -24,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-28,03; 235,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,85; 256,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-81,63; -41,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>33,98; 297,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 140,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-79,24; -47,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,27; 206,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 130,91</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -962,47 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-60,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>68,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-57,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-58,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>44,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-0,01%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1144,82 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-69,91; -48,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>23,47; 126,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 16,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-64,44; -48,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>9,03; 60,62</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 24,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-65,07; -52,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,21; 70,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-13,4; 14,01</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P18_1-Urba-long_razon.xlsx
+++ b/data/long_razon/P18_1-Urba-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.6811016782686897</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.6540445019123259</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-0.142158681203759</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0.2608250748514179</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-0.5937257885400461</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>0.5030640521893236</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.0467203997646358</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.2726111107292632</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>-0.6299903761772069</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>0.5609736621068707</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>-0.02790362350533707</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>-0.07656117134553175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-0.7917991974719387</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>0.01079242575775115</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.4037524163874985</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.1817690204508658</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.6884868146424079</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.1700528403742828</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.1660186979925689</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4598079118459115</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.7014260486520778</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>0.2352337984601455</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.1971457287829233</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>-0.282433132239475</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>-0.5566969370083369</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.659573073886407</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.2568665968721037</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>1.300999767401733</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-0.4834946452230993</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>1.024843571748107</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.2947996657127062</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>-0.02830916928796996</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>-0.5383163622335458</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.983871690597811</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.1762871352384005</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>0.2742126154314168</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.5273803394782421</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.242397876146531</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1974769995510267</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-0.322691649781557</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>-0.5263173262679181</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>-0.00379524467383565</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.03548483185013428</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>-0.111839347956825</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>-0.5267459007467902</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.3532560407496406</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>-0.108474340300158</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>-0.1927933579367672</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-0.6851104582232611</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.4396188045158854</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4282845484857338</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.6243139902593451</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-0.6461932539526528</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.3038840747738052</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.258284918402629</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.3576482929821574</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>-0.6347855763540267</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>0.05775887254591851</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.2751822714881717</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.3966970616426757</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-0.2549418075077013</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.726831251054309</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.1383460522645496</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>0.1319069074876075</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>-0.3567837397131919</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.2993665661486115</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2467480315160286</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.1952109698190941</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>-0.4028303738040895</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.8201384606843104</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.1044427359783934</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.05211583410310869</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,137 +931,269 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.6441966270092706</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.628255621012445</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.5928005315164947</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>1.471630042448184</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-0.6406372973743747</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>1.347229771402166</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5357262787770928</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.6423128087736778</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>-0.6420276558910774</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>1.009217147749983</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.5575446665562273</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>-0.2602466489943036</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-0.85708284196518</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2187752960072829</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.2835754053780702</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.3377139074666971</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-0.8080633605544056</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>0.3679807393648555</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>-0.05769750130342507</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.8027833023874126</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.7765280746871615</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>0.2670447013642393</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>0.06634474479437132</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>-0.6136639458286709</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>-0.2564251947067054</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.821574539278942</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>2.785866879433814</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>8.787266269708184</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>-0.4052746071958211</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>2.993170394331015</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.513915017520864</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>-0.2996123885555978</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>-0.4244277230079365</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>2.145347907037347</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>1.384335168554337</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.5495322398149796</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-0.6193737986264115</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.8609665776596391</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.09996716709374949</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.1117440426440394</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-0.5740564883281225</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.3336337658699376</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.06658900066595339</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.2815893868635145</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>-0.5925256680421913</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.5184167008573701</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>-0.002655326595876009</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>-0.1449084555899998</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.7119951968101036</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.4042655087592694</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3110800148404096</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.1996994520650855</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-0.6460901652818696</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>0.09237668209039959</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.07892889619054452</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.4121138790470056</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>-0.6501969118008961</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>0.2836966261376384</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.1299467988446385</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>-0.2865554620240451</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>-0.4955499467991006</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.549936959401575</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.1498802415097611</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7289938729899363</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>-0.4862836433177102</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.6086522019340844</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2532469051030765</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>-0.1283184963733507</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>-0.5193558664732645</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.8055521968836394</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.1590089227603986</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.0826360963971411</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1212,14 +1201,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
